--- a/burndown/burndown-verkiezingen-d-m-b.xlsx
+++ b/burndown/burndown-verkiezingen-d-m-b.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Ballestero\Documents\School\SOD3\proefexamen-diego-misha-berkay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Ballestero\Documents\School\SOD3\proefexamen-diego-misha-berkay\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2740CE-4C65-4565-91BC-3E70C3E881B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E20913-6D44-4488-B731-704E42358C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>Taak</t>
   </si>
@@ -59,18 +59,6 @@
     <t>Repository maken</t>
   </si>
   <si>
-    <t>US 1</t>
-  </si>
-  <si>
-    <t>US 2</t>
-  </si>
-  <si>
-    <t>US 3</t>
-  </si>
-  <si>
-    <t>US 4</t>
-  </si>
-  <si>
     <t>US 5</t>
   </si>
   <si>
@@ -147,6 +135,18 @@
   </si>
   <si>
     <t>Database aanmaken</t>
+  </si>
+  <si>
+    <t>Een inlog pagina waar elke gebruiker kan inloggen</t>
+  </si>
+  <si>
+    <t>Registratie van politieke partijen per verkiezing soort</t>
+  </si>
+  <si>
+    <t>Uitslagen van een verkiezing publiceren door het ministerie of door gemeente</t>
+  </si>
+  <si>
+    <t>Aanmaken van een verkiezing van een bepaalde verkiezingssoort</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +228,6 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -244,6 +243,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,16 +432,16 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,13 +1694,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="8.5703125" customWidth="1"/>
@@ -1713,21 +1713,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1737,39 +1737,39 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
+      <c r="C3" s="2">
+        <v>2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1784,10 +1784,10 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1802,96 +1802,96 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
+      <c r="A6" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>21</v>
+      <c r="A7" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
+      <c r="A8" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
+      <c r="A9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
+      <c r="A10" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
+      <c r="A11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1900,16 +1900,16 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
+      <c r="A12" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -1918,44 +1918,44 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>29</v>
+      <c r="A13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
+      <c r="A14" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>21</v>
+      <c r="A15" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -1964,16 +1964,16 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
+      <c r="A16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -1982,30 +1982,30 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>10</v>
+      <c r="A17" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
+      <c r="A18" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -2014,15 +2014,15 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>29</v>
+      <c r="A19" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2031,30 +2031,30 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>11</v>
+      <c r="A20" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
+      <c r="A21" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2063,16 +2063,16 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>29</v>
+      <c r="A22" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -2081,30 +2081,30 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>12</v>
+      <c r="A23" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>21</v>
+      <c r="A24" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -2113,16 +2113,16 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>29</v>
+      <c r="A25" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -2131,29 +2131,29 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="J25" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>13</v>
+      <c r="A26" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>21</v>
+      <c r="A27" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -2162,31 +2162,31 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="J27" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>29</v>
+      <c r="A28" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>29</v>
+      <c r="A29" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -2195,28 +2195,28 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="J29" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>14</v>
+      <c r="A30" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>21</v>
+      <c r="A31" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -2225,31 +2225,31 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="J31" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>29</v>
+      <c r="A32" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>15</v>
+      <c r="A33" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -2258,29 +2258,29 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>21</v>
+      <c r="A34" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>29</v>
+      <c r="A35" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -2289,30 +2289,30 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>16</v>
+      <c r="A36" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>21</v>
+      <c r="A37" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -2321,46 +2321,46 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>29</v>
+      <c r="A38" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>17</v>
+      <c r="A39" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>21</v>
+      <c r="A40" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -2369,32 +2369,32 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>29</v>
+      <c r="A41" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>18</v>
+      <c r="A42" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2403,8 +2403,8 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>21</v>
+      <c r="A43" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -2413,24 +2413,24 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>29</v>
+      <c r="A44" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>19</v>
+      <c r="A45" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2439,8 +2439,8 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>21</v>
+      <c r="A46" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
@@ -2449,24 +2449,24 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>29</v>
+      <c r="A47" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>20</v>
+      <c r="A48" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2475,8 +2475,8 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>21</v>
+      <c r="A49" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
@@ -2485,24 +2485,24 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>29</v>
+      <c r="A50" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2511,8 +2511,8 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>21</v>
+      <c r="A52" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
@@ -2521,19 +2521,19 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>29</v>
+      <c r="A53" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2546,19 +2546,19 @@
       </c>
       <c r="C54" s="2">
         <f>B$54-SUM(C3:C53)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D54" s="2">
         <f>C$54-SUM(D3:D53)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E54" s="2">
         <f>D$54-SUM(E3:E53)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F54" s="2">
         <f>E$54-SUM(F3:F53)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2569,19 +2569,19 @@
         <f>B54</f>
         <v>54</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <f>B$55-$B$55/COUNTA($C$1:$J$1)</f>
         <v>40.5</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <f>C$55-$B$55/COUNTA($C$1:$J$1)</f>
         <v>27</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <f>D$55-$B$55/COUNTA($C$1:$J$1)</f>
         <v>13.5</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="7">
         <f>E$55-$B$55/COUNTA($C$1:$J$1)</f>
         <v>0</v>
       </c>
@@ -2595,15 +2595,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2852,15 +2843,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2877,4 +2869,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/burndown/burndown-verkiezingen-d-m-b.xlsx
+++ b/burndown/burndown-verkiezingen-d-m-b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Ballestero\Documents\School\SOD3\proefexamen-diego-misha-berkay\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E20913-6D44-4488-B731-704E42358C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BF0B04-437E-4138-9BB5-ACD164947EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>Taak</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Repository maken</t>
   </si>
   <si>
-    <t>US 5</t>
-  </si>
-  <si>
-    <t>US 6</t>
-  </si>
-  <si>
     <t>US 7</t>
   </si>
   <si>
@@ -147,6 +141,15 @@
   </si>
   <si>
     <t>Aanmaken van een verkiezing van een bepaalde verkiezingssoort</t>
+  </si>
+  <si>
+    <t>Koppeling van een verkiesbare aan een politieke partij</t>
+  </si>
+  <si>
+    <t>Registratie van verkiesbare / Registratie van stemgerechtigden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireframe </t>
   </si>
 </sst>
 </file>
@@ -1694,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,16 +1716,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -1737,16 +1740,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -1755,7 +1758,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1809,7 +1812,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1823,14 +1826,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1841,14 +1844,14 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1859,14 +1862,14 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1900,7 +1903,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1909,7 +1912,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -1918,7 +1921,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1941,7 +1944,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1955,7 +1958,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -1964,7 +1967,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1973,7 +1976,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -1982,7 +1985,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1991,7 +1994,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -2005,7 +2008,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -2014,7 +2017,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -2022,7 +2025,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2031,7 +2034,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -2040,7 +2043,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -2054,7 +2057,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2063,7 +2066,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -2081,7 +2084,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2090,7 +2093,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -2104,7 +2107,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -2113,7 +2116,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2122,7 +2125,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -2131,7 +2134,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -2153,7 +2156,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -2162,7 +2165,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2170,14 +2173,14 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -2186,7 +2189,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -2195,7 +2198,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -2203,7 +2206,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -2216,7 +2219,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -2225,7 +2228,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -2233,14 +2236,14 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -2249,7 +2252,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -2264,14 +2267,14 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2280,7 +2283,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -2289,7 +2292,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -2298,7 +2301,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -2312,7 +2315,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -2321,7 +2324,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2330,14 +2333,14 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -2360,7 +2363,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -2369,7 +2372,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2378,14 +2381,14 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -2394,7 +2397,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -2413,24 +2416,24 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2440,7 +2443,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
@@ -2449,24 +2452,24 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2476,7 +2479,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
@@ -2485,24 +2488,24 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2512,7 +2515,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
@@ -2521,19 +2524,19 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2595,6 +2598,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2843,16 +2855,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2869,12 +2880,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/burndown/burndown-verkiezingen-d-m-b.xlsx
+++ b/burndown/burndown-verkiezingen-d-m-b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Ballestero\Documents\School\SOD3\proefexamen-diego-misha-berkay\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BF0B04-437E-4138-9BB5-ACD164947EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD9774E-BCD1-4066-847B-B465D23895B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>Taak</t>
   </si>
@@ -59,15 +59,6 @@
     <t>Repository maken</t>
   </si>
   <si>
-    <t>US 7</t>
-  </si>
-  <si>
-    <t>US 8</t>
-  </si>
-  <si>
-    <t>US 9</t>
-  </si>
-  <si>
     <t>US 10</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
     <t>US 15</t>
   </si>
   <si>
@@ -122,9 +110,6 @@
     <t>wk3</t>
   </si>
   <si>
-    <t>wk4</t>
-  </si>
-  <si>
     <t>Pre-req</t>
   </si>
   <si>
@@ -150,6 +135,39 @@
   </si>
   <si>
     <t xml:space="preserve">Wireframe </t>
+  </si>
+  <si>
+    <t>Pagina maken</t>
+  </si>
+  <si>
+    <t>Wireframe</t>
+  </si>
+  <si>
+    <t>Pagina voor de resultaten</t>
+  </si>
+  <si>
+    <t>Navigatie bar</t>
+  </si>
+  <si>
+    <t>Admin opties tonen</t>
+  </si>
+  <si>
+    <t>Stemmer opties tonen</t>
+  </si>
+  <si>
+    <t>Tonen als je bent ingelogd</t>
+  </si>
+  <si>
+    <t>Het stemmen in een verkiezing door een stemgerechtigde</t>
+  </si>
+  <si>
+    <t>Volgorde bepalen van de stemlijst van een politieke partij</t>
+  </si>
+  <si>
+    <t>1 keer max mogen stemmen</t>
+  </si>
+  <si>
+    <t>In de admin's pagina tonen</t>
   </si>
 </sst>
 </file>
@@ -362,7 +380,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$54</c:f>
+              <c:f>BurndownChart!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -385,9 +403,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>BurndownChart!$B$1:$F$2</c:f>
+              <c:f>BurndownChart!$B$1:$E$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>geschat</c:v>
@@ -400,9 +418,6 @@
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>wk3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>wk4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -418,32 +433,26 @@
                   <c:pt idx="3">
                     <c:v>Sprint 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Sprint 3</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$54:$F$54</c:f>
+              <c:f>BurndownChart!$B$55:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
@@ -461,7 +470,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$55</c:f>
+              <c:f>BurndownChart!$A$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -484,9 +493,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>BurndownChart!$B$1:$F$2</c:f>
+              <c:f>BurndownChart!$B$1:$E$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>geschat</c:v>
@@ -499,9 +508,6 @@
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>wk3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>wk4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -517,32 +523,26 @@
                   <c:pt idx="3">
                     <c:v>Sprint 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Sprint 3</c:v>
-                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$55:$F$55</c:f>
+              <c:f>BurndownChart!$B$56:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>54</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.5</c:v>
+                  <c:v>45.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>22.666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1341,15 +1341,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1695,44 +1695,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A1:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1740,25 +1737,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1768,13 +1762,12 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1786,13 +1779,12 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1804,788 +1796,724 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
+      <c r="D7" s="2">
+        <v>3</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
+      <c r="D8" s="2">
+        <v>2</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
+      <c r="D9" s="2">
+        <v>2</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>33</v>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="1"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="1"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>11</v>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="2" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>12</v>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>13</v>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>14</v>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>22</v>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="1">
-        <f>SUM(B3:B53)</f>
-        <v>54</v>
-      </c>
-      <c r="C54" s="2">
-        <f>B$54-SUM(C3:C53)</f>
+      <c r="B55" s="1">
+        <f>SUM(B3:B54)</f>
+        <v>68</v>
+      </c>
+      <c r="C55" s="2">
+        <f>B$55-SUM(C3:C54)</f>
+        <v>62</v>
+      </c>
+      <c r="D55" s="2">
+        <f>C$55-SUM(D3:D54)</f>
         <v>48</v>
       </c>
-      <c r="D54" s="2">
-        <f>C$54-SUM(D3:D53)</f>
+      <c r="E55" s="2">
+        <f>D$55-SUM(E3:E54)</f>
         <v>48</v>
       </c>
-      <c r="E54" s="2">
-        <f>D$54-SUM(E3:E53)</f>
-        <v>48</v>
-      </c>
-      <c r="F54" s="2">
-        <f>E$54-SUM(F3:F53)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="1">
-        <f>B54</f>
-        <v>54</v>
-      </c>
-      <c r="C55" s="7">
-        <f>B$55-$B$55/COUNTA($C$1:$J$1)</f>
-        <v>40.5</v>
-      </c>
-      <c r="D55" s="7">
-        <f>C$55-$B$55/COUNTA($C$1:$J$1)</f>
-        <v>27</v>
-      </c>
-      <c r="E55" s="7">
-        <f>D$55-$B$55/COUNTA($C$1:$J$1)</f>
-        <v>13.5</v>
-      </c>
-      <c r="F55" s="7">
-        <f>E$55-$B$55/COUNTA($C$1:$J$1)</f>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1">
+        <f>B55</f>
+        <v>68</v>
+      </c>
+      <c r="C56" s="7">
+        <f>B$56-$B$56/COUNTA($C$1:$I$1)</f>
+        <v>45.333333333333329</v>
+      </c>
+      <c r="D56" s="7">
+        <f>C$56-$B$56/COUNTA($C$1:$I$1)</f>
+        <v>22.666666666666661</v>
+      </c>
+      <c r="E56" s="7">
+        <f>D$56-$B$56/COUNTA($C$1:$I$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2598,15 +2526,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2855,15 +2774,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2880,4 +2800,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/burndown/burndown-verkiezingen-d-m-b.xlsx
+++ b/burndown/burndown-verkiezingen-d-m-b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Ballestero\Documents\School\SOD3\proefexamen-diego-misha-berkay\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD9774E-BCD1-4066-847B-B465D23895B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B783848C-1050-4F97-B3FB-40F26512E735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Taak</t>
   </si>
@@ -59,21 +59,6 @@
     <t>Repository maken</t>
   </si>
   <si>
-    <t>US 10</t>
-  </si>
-  <si>
-    <t>US 11</t>
-  </si>
-  <si>
-    <t>US 12</t>
-  </si>
-  <si>
-    <t>US 13</t>
-  </si>
-  <si>
-    <t>US 14</t>
-  </si>
-  <si>
     <t>ERD</t>
   </si>
   <si>
@@ -92,9 +77,6 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>US 15</t>
-  </si>
-  <si>
     <t>activiteit nog invullen</t>
   </si>
   <si>
@@ -168,6 +150,18 @@
   </si>
   <si>
     <t>In de admin's pagina tonen</t>
+  </si>
+  <si>
+    <t>Uitnodigingen versturen naar de stemgerechtigden</t>
+  </si>
+  <si>
+    <t>Het goedkeuren van een politieke partij door het ministerie</t>
+  </si>
+  <si>
+    <t>Percentages/hoeveelheden zien hoeveel van de stemgerechtigden van een stad/regio hebben gestemd</t>
+  </si>
+  <si>
+    <t>Informatie pagina’s aanmaken en in het menu plaatsen</t>
   </si>
 </sst>
 </file>
@@ -380,7 +374,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$55</c:f>
+              <c:f>BurndownChart!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -439,21 +433,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$55:$E$55</c:f>
+              <c:f>BurndownChart!$B$49:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -470,7 +464,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$56</c:f>
+              <c:f>BurndownChart!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -529,18 +523,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$56:$E$56</c:f>
+              <c:f>BurndownChart!$B$50:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>68</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.333333333333329</c:v>
+                  <c:v>42.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.666666666666661</c:v>
+                  <c:v>21.333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1349,7 +1343,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1695,15 +1689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:E56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="8.5703125" customWidth="1"/>
@@ -1716,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -1737,13 +1731,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1752,7 +1746,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1803,7 +1797,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1816,7 +1810,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1833,7 +1827,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -1850,7 +1844,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -1867,7 +1861,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -1884,7 +1878,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1897,14 +1891,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="8"/>
@@ -1914,14 +1908,14 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="8"/>
@@ -1931,7 +1925,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1944,7 +1938,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1957,14 +1951,14 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="8"/>
@@ -1974,14 +1968,14 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="8"/>
@@ -1991,7 +1985,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -2008,7 +2002,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -2021,14 +2015,14 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="8"/>
@@ -2037,14 +2031,14 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="8"/>
@@ -2054,7 +2048,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -2067,14 +2061,14 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="8"/>
@@ -2084,7 +2078,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -2097,14 +2091,14 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="8"/>
@@ -2114,14 +2108,14 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="8"/>
@@ -2130,7 +2124,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -2143,14 +2137,14 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="8"/>
@@ -2159,14 +2153,14 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="8"/>
@@ -2176,7 +2170,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -2192,7 +2186,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -2204,7 +2198,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -2218,7 +2212,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -2231,7 +2225,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -2245,14 +2239,14 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="8"/>
@@ -2262,14 +2256,14 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="8"/>
@@ -2279,7 +2273,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -2292,7 +2286,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -2307,7 +2301,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -2320,7 +2314,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -2333,7 +2327,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -2348,7 +2342,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2361,7 +2355,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2370,7 +2364,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -2381,7 +2375,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2390,7 +2384,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2399,7 +2393,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
@@ -2410,7 +2404,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2418,102 +2412,44 @@
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1">
+        <f>SUM(B3:B48)</f>
+        <v>64</v>
+      </c>
+      <c r="C49" s="2">
+        <f>B$49-SUM(C3:C48)</f>
+        <v>58</v>
+      </c>
+      <c r="D49" s="2">
+        <f>C$49-SUM(D3:D48)</f>
+        <v>44</v>
+      </c>
+      <c r="E49" s="2">
+        <f>D$49-SUM(E3:E48)</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>12</v>
+      <c r="A50" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="1">
-        <f>SUM(B3:B54)</f>
-        <v>68</v>
-      </c>
-      <c r="C55" s="2">
-        <f>B$55-SUM(C3:C54)</f>
-        <v>62</v>
-      </c>
-      <c r="D55" s="2">
-        <f>C$55-SUM(D3:D54)</f>
-        <v>48</v>
-      </c>
-      <c r="E55" s="2">
-        <f>D$55-SUM(E3:E54)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="1">
-        <f>B55</f>
-        <v>68</v>
-      </c>
-      <c r="C56" s="7">
-        <f>B$56-$B$56/COUNTA($C$1:$I$1)</f>
-        <v>45.333333333333329</v>
-      </c>
-      <c r="D56" s="7">
-        <f>C$56-$B$56/COUNTA($C$1:$I$1)</f>
-        <v>22.666666666666661</v>
-      </c>
-      <c r="E56" s="7">
-        <f>D$56-$B$56/COUNTA($C$1:$I$1)</f>
+        <f>B49</f>
+        <v>64</v>
+      </c>
+      <c r="C50" s="7">
+        <f>B$50-$B$50/COUNTA($C$1:$I$1)</f>
+        <v>42.666666666666671</v>
+      </c>
+      <c r="D50" s="7">
+        <f>C$50-$B$50/COUNTA($C$1:$I$1)</f>
+        <v>21.333333333333339</v>
+      </c>
+      <c r="E50" s="7">
+        <f>D$50-$B$50/COUNTA($C$1:$I$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2526,6 +2462,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2774,16 +2719,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2800,12 +2744,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/burndown/burndown-verkiezingen-d-m-b.xlsx
+++ b/burndown/burndown-verkiezingen-d-m-b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Ballestero\Documents\School\SOD3\proefexamen-diego-misha-berkay\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B783848C-1050-4F97-B3FB-40F26512E735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5D6460-8EAA-4A8B-B281-6376D2E729FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Taak</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>Informatie pagina’s aanmaken en in het menu plaatsen</t>
+  </si>
+  <si>
+    <t>Tonen van geregistreerde verkiezingen met bijbehorende partijen</t>
+  </si>
+  <si>
+    <t>Tonen op de index als een header</t>
+  </si>
+  <si>
+    <t>Kandidaat info tonen op de stem pagina</t>
+  </si>
+  <si>
+    <t>Op het resultatenscherm tonen</t>
   </si>
 </sst>
 </file>
@@ -230,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -259,6 +271,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,16 +453,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,13 +543,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>64</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.666666666666671</c:v>
+                  <c:v>47.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.333333333333339</c:v>
+                  <c:v>23.666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1691,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,7 +1739,7 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1897,8 +1912,8 @@
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
+      <c r="D12" s="2">
+        <v>3</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="8"/>
@@ -1914,8 +1929,8 @@
         <v>2</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
+      <c r="D13" s="2">
+        <v>2</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="8"/>
@@ -1924,8 +1939,8 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
+      <c r="A14" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1937,12 +1952,16 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1"/>
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1951,14 +1970,14 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
+      <c r="D16" s="2">
+        <v>2</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="8"/>
@@ -1967,16 +1986,12 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
+      <c r="A17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1985,14 +2000,14 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>2</v>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="8"/>
@@ -2001,12 +2016,16 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1"/>
+      <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -2015,31 +2034,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
+      <c r="D20" s="2">
+        <v>2</v>
       </c>
       <c r="E20" s="2"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
+      <c r="A21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -2047,30 +2063,33 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1"/>
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="8"/>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2078,7 +2097,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -2091,45 +2110,46 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="2"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
+      <c r="A26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1"/>
+      <c r="A27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2137,31 +2157,27 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="2"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
+      <c r="A29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -2170,49 +2186,56 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1"/>
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>13</v>
+      <c r="A33" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -2220,65 +2243,63 @@
       <c r="E33" s="2"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>35</v>
+      <c r="A34" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="2"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
+      <c r="A36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1"/>
+      <c r="A37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2286,22 +2307,24 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>13</v>
+      <c r="A39" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -2313,13 +2336,17 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1"/>
+      <c r="A40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2327,89 +2354,109 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>13</v>
+      <c r="A42" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="A43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>13</v>
+      <c r="A45" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2417,11 +2464,11 @@
       </c>
       <c r="B49" s="1">
         <f>SUM(B3:B48)</f>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C49" s="2">
         <f>B$49-SUM(C3:C48)</f>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D49" s="2">
         <f>C$49-SUM(D3:D48)</f>
@@ -2429,7 +2476,7 @@
       </c>
       <c r="E49" s="2">
         <f>D$49-SUM(E3:E48)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,15 +2485,15 @@
       </c>
       <c r="B50" s="1">
         <f>B49</f>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7">
         <f>B$50-$B$50/COUNTA($C$1:$I$1)</f>
-        <v>42.666666666666671</v>
+        <v>47.333333333333329</v>
       </c>
       <c r="D50" s="7">
         <f>C$50-$B$50/COUNTA($C$1:$I$1)</f>
-        <v>21.333333333333339</v>
+        <v>23.666666666666661</v>
       </c>
       <c r="E50" s="7">
         <f>D$50-$B$50/COUNTA($C$1:$I$1)</f>

--- a/burndown/burndown-verkiezingen-d-m-b.xlsx
+++ b/burndown/burndown-verkiezingen-d-m-b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Ballestero\Documents\School\SOD3\proefexamen-diego-misha-berkay\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5D6460-8EAA-4A8B-B281-6376D2E729FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF795B-FE0F-4B3F-97C1-263F4DF60E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Taak</t>
   </si>
@@ -389,7 +389,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$49</c:f>
+              <c:f>BurndownChart!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -448,21 +448,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$49:$E$49</c:f>
+              <c:f>BurndownChart!$B$47:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,7 +479,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$50</c:f>
+              <c:f>BurndownChart!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -538,18 +538,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$50:$E$50</c:f>
+              <c:f>BurndownChart!$B$48:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>71</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.333333333333329</c:v>
+                  <c:v>46.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.666666666666661</c:v>
+                  <c:v>23.333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1358,7 +1358,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1704,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1760,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1">
@@ -1777,7 +1777,7 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -1794,7 +1794,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
@@ -1939,8 +1939,8 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>42</v>
+      <c r="A14" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -1986,8 +1986,8 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>22</v>
+      <c r="A17" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -2000,14 +2000,14 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
+      <c r="D18" s="2">
+        <v>3</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="8"/>
@@ -2017,14 +2017,14 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
+      <c r="D19" s="2">
+        <v>2</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="8"/>
@@ -2033,16 +2033,12 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
+      <c r="A20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -2050,12 +2046,16 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1"/>
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -2064,32 +2064,32 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E22" s="2"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -2110,10 +2110,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2126,30 +2126,30 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
+      <c r="A26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3</v>
-      </c>
+      <c r="A27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -2263,9 +2263,11 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
@@ -2306,47 +2308,43 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
+      <c r="A38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1"/>
+      <c r="A39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
+      <c r="A40" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2354,7 +2352,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -2370,53 +2368,47 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1"/>
+      <c r="A42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
+      <c r="A43" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -2425,7 +2417,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
@@ -2437,66 +2429,44 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1">
+        <f>SUM(B3:B46)</f>
+        <v>70</v>
+      </c>
+      <c r="C47" s="2">
+        <f>B$47-SUM(C3:C46)</f>
+        <v>64</v>
+      </c>
+      <c r="D47" s="2">
+        <f>C$47-SUM(D3:D46)</f>
+        <v>38</v>
+      </c>
+      <c r="E47" s="2">
+        <f>D$47-SUM(E3:E46)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>44</v>
+      <c r="A48" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="1">
-        <f>SUM(B3:B48)</f>
-        <v>71</v>
-      </c>
-      <c r="C49" s="2">
-        <f>B$49-SUM(C3:C48)</f>
-        <v>65</v>
-      </c>
-      <c r="D49" s="2">
-        <f>C$49-SUM(D3:D48)</f>
-        <v>44</v>
-      </c>
-      <c r="E49" s="2">
-        <f>D$49-SUM(E3:E48)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1">
-        <f>B49</f>
-        <v>71</v>
-      </c>
-      <c r="C50" s="7">
-        <f>B$50-$B$50/COUNTA($C$1:$I$1)</f>
-        <v>47.333333333333329</v>
-      </c>
-      <c r="D50" s="7">
-        <f>C$50-$B$50/COUNTA($C$1:$I$1)</f>
-        <v>23.666666666666661</v>
-      </c>
-      <c r="E50" s="7">
-        <f>D$50-$B$50/COUNTA($C$1:$I$1)</f>
+        <f>B47</f>
+        <v>70</v>
+      </c>
+      <c r="C48" s="7">
+        <f>B$48-$B$48/COUNTA($C$1:$I$1)</f>
+        <v>46.666666666666671</v>
+      </c>
+      <c r="D48" s="7">
+        <f>C$48-$B$48/COUNTA($C$1:$I$1)</f>
+        <v>23.333333333333339</v>
+      </c>
+      <c r="E48" s="7">
+        <f>D$48-$B$48/COUNTA($C$1:$I$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2509,15 +2479,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2766,15 +2727,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2791,4 +2753,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>